--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_100ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_100ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2602,28 +2602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1205.152172412278</v>
+        <v>1291.315258166521</v>
       </c>
       <c r="AB2" t="n">
-        <v>1648.942369855948</v>
+        <v>1766.834505031967</v>
       </c>
       <c r="AC2" t="n">
-        <v>1491.569624382047</v>
+        <v>1598.210299639518</v>
       </c>
       <c r="AD2" t="n">
-        <v>1205152.172412278</v>
+        <v>1291315.258166521</v>
       </c>
       <c r="AE2" t="n">
-        <v>1648942.369855948</v>
+        <v>1766834.505031967</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.559066876750143e-06</v>
+        <v>2.247651235597789e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.49583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1491569.624382047</v>
+        <v>1598210.299639518</v>
       </c>
     </row>
     <row r="3">
@@ -2708,28 +2708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>429.3702991460551</v>
+        <v>472.4518867774519</v>
       </c>
       <c r="AB3" t="n">
-        <v>587.4833857723386</v>
+        <v>646.4295145951228</v>
       </c>
       <c r="AC3" t="n">
-        <v>531.4147959723364</v>
+        <v>584.7351889916854</v>
       </c>
       <c r="AD3" t="n">
-        <v>429370.2991460551</v>
+        <v>472451.886777452</v>
       </c>
       <c r="AE3" t="n">
-        <v>587483.3857723386</v>
+        <v>646429.5145951228</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.904704836059895e-06</v>
+        <v>4.187609595956544e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.4625</v>
       </c>
       <c r="AH3" t="n">
-        <v>531414.7959723364</v>
+        <v>584735.1889916854</v>
       </c>
     </row>
     <row r="4">
@@ -2814,28 +2814,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>327.4315410391377</v>
+        <v>370.5130391619836</v>
       </c>
       <c r="AB4" t="n">
-        <v>448.0062797098446</v>
+        <v>506.9522860630803</v>
       </c>
       <c r="AC4" t="n">
-        <v>405.249189155099</v>
+        <v>458.5694713932214</v>
       </c>
       <c r="AD4" t="n">
-        <v>327431.5410391377</v>
+        <v>370513.0391619835</v>
       </c>
       <c r="AE4" t="n">
-        <v>448006.2797098446</v>
+        <v>506952.2860630803</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.395314165760534e-06</v>
+        <v>4.89490360786965e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.952083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>405249.189155099</v>
+        <v>458569.4713932214</v>
       </c>
     </row>
     <row r="5">
@@ -2920,28 +2920,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>291.3782911607005</v>
+        <v>325.8265109966139</v>
       </c>
       <c r="AB5" t="n">
-        <v>398.6766326690381</v>
+        <v>445.8102067967355</v>
       </c>
       <c r="AC5" t="n">
-        <v>360.6274943932725</v>
+        <v>403.2627063586093</v>
       </c>
       <c r="AD5" t="n">
-        <v>291378.2911607005</v>
+        <v>325826.5109966139</v>
       </c>
       <c r="AE5" t="n">
-        <v>398676.6326690381</v>
+        <v>445810.2067967355</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.658489672980264e-06</v>
+        <v>5.274314371322295e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.308333333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>360627.4943932725</v>
+        <v>403262.7063586093</v>
       </c>
     </row>
     <row r="6">
@@ -3026,28 +3026,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>258.753083028006</v>
+        <v>301.7492402962802</v>
       </c>
       <c r="AB6" t="n">
-        <v>354.0373835792851</v>
+        <v>412.866622810323</v>
       </c>
       <c r="AC6" t="n">
-        <v>320.248552585066</v>
+        <v>373.4632117912495</v>
       </c>
       <c r="AD6" t="n">
-        <v>258753.083028006</v>
+        <v>301749.2402962802</v>
       </c>
       <c r="AE6" t="n">
-        <v>354037.3835792851</v>
+        <v>412866.622810323</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.83471806140678e-06</v>
+        <v>5.528376567691915e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.925</v>
       </c>
       <c r="AH6" t="n">
-        <v>320248.5525850659</v>
+        <v>373463.2117912495</v>
       </c>
     </row>
     <row r="7">
@@ -3132,28 +3132,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>246.5401648494305</v>
+        <v>281.0736360313675</v>
       </c>
       <c r="AB7" t="n">
-        <v>337.3271301312752</v>
+        <v>384.5773489117851</v>
       </c>
       <c r="AC7" t="n">
-        <v>305.1331022732473</v>
+        <v>347.8738264893428</v>
       </c>
       <c r="AD7" t="n">
-        <v>246540.1648494305</v>
+        <v>281073.6360313675</v>
       </c>
       <c r="AE7" t="n">
-        <v>337327.1301312752</v>
+        <v>384577.3489117851</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.918601607222381e-06</v>
+        <v>5.649308490632752e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.756249999999999</v>
       </c>
       <c r="AH7" t="n">
-        <v>305133.1022732473</v>
+        <v>347873.8264893428</v>
       </c>
     </row>
     <row r="8">
@@ -3238,28 +3238,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>247.365653388214</v>
+        <v>281.8991245701511</v>
       </c>
       <c r="AB8" t="n">
-        <v>338.4565999680223</v>
+        <v>385.7068187485328</v>
       </c>
       <c r="AC8" t="n">
-        <v>306.1547770939965</v>
+        <v>348.8955013100922</v>
       </c>
       <c r="AD8" t="n">
-        <v>247365.653388214</v>
+        <v>281899.124570151</v>
       </c>
       <c r="AE8" t="n">
-        <v>338456.5999680223</v>
+        <v>385706.8187485328</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.914225074397219e-06</v>
+        <v>5.642998999001056e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.764583333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>306154.7770939965</v>
+        <v>348895.5013100922</v>
       </c>
     </row>
   </sheetData>
@@ -3535,28 +3535,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>747.2208029573067</v>
+        <v>814.3895991967386</v>
       </c>
       <c r="AB2" t="n">
-        <v>1022.380467661457</v>
+        <v>1114.2837779544</v>
       </c>
       <c r="AC2" t="n">
-        <v>924.8059107478455</v>
+        <v>1007.938098093536</v>
       </c>
       <c r="AD2" t="n">
-        <v>747220.8029573066</v>
+        <v>814389.5991967386</v>
       </c>
       <c r="AE2" t="n">
-        <v>1022380.467661457</v>
+        <v>1114283.777954401</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.048676544286434e-06</v>
+        <v>2.999185391768986e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.34791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>924805.9107478454</v>
+        <v>1007938.098093536</v>
       </c>
     </row>
     <row r="3">
@@ -3641,28 +3641,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>338.9539874633045</v>
+        <v>381.0411052383196</v>
       </c>
       <c r="AB3" t="n">
-        <v>463.7717992418494</v>
+        <v>521.3572505342182</v>
       </c>
       <c r="AC3" t="n">
-        <v>419.5100696300148</v>
+        <v>471.5996462727286</v>
       </c>
       <c r="AD3" t="n">
-        <v>338953.9874633045</v>
+        <v>381041.1052383196</v>
       </c>
       <c r="AE3" t="n">
-        <v>463771.7992418494</v>
+        <v>521357.2505342183</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.293728587775427e-06</v>
+        <v>4.821894745882735e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.545833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>419510.0696300148</v>
+        <v>471599.6462727286</v>
       </c>
     </row>
     <row r="4">
@@ -3747,28 +3747,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>271.0088144566172</v>
+        <v>304.5932573306087</v>
       </c>
       <c r="AB4" t="n">
-        <v>370.8062160046218</v>
+        <v>416.7579323858676</v>
       </c>
       <c r="AC4" t="n">
-        <v>335.4169911789327</v>
+        <v>376.9831402423914</v>
       </c>
       <c r="AD4" t="n">
-        <v>271008.8144566172</v>
+        <v>304593.2573306087</v>
       </c>
       <c r="AE4" t="n">
-        <v>370806.2160046218</v>
+        <v>416757.9323858676</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.746474785407788e-06</v>
+        <v>5.484698147378644e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.391666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>335416.9911789327</v>
+        <v>376983.1402423914</v>
       </c>
     </row>
     <row r="5">
@@ -3853,28 +3853,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>234.1587277773187</v>
+        <v>267.8284219973337</v>
       </c>
       <c r="AB5" t="n">
-        <v>320.3863016987678</v>
+        <v>366.4546627328174</v>
       </c>
       <c r="AC5" t="n">
-        <v>289.8090827297311</v>
+        <v>331.4807440439459</v>
       </c>
       <c r="AD5" t="n">
-        <v>234158.7277773187</v>
+        <v>267828.4219973338</v>
       </c>
       <c r="AE5" t="n">
-        <v>320386.3016987678</v>
+        <v>366454.6627328175</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.980242738785297e-06</v>
+        <v>5.826925637017698e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.900000000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>289809.0827297311</v>
+        <v>331480.744043946</v>
       </c>
     </row>
     <row r="6">
@@ -3959,28 +3959,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>230.5729524361662</v>
+        <v>264.2426466561811</v>
       </c>
       <c r="AB6" t="n">
-        <v>315.480085683762</v>
+        <v>361.5484467178092</v>
       </c>
       <c r="AC6" t="n">
-        <v>285.3711090852785</v>
+        <v>327.0427703994927</v>
       </c>
       <c r="AD6" t="n">
-        <v>230572.9524361662</v>
+        <v>264242.6466561811</v>
       </c>
       <c r="AE6" t="n">
-        <v>315480.085683762</v>
+        <v>361548.4467178092</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.011633141821141e-06</v>
+        <v>5.87288000618808e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.837499999999999</v>
       </c>
       <c r="AH6" t="n">
-        <v>285371.1090852785</v>
+        <v>327042.7703994926</v>
       </c>
     </row>
   </sheetData>
@@ -4256,28 +4256,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>253.1582732612684</v>
+        <v>291.9947169324708</v>
       </c>
       <c r="AB2" t="n">
-        <v>346.3823180306841</v>
+        <v>399.5200536047599</v>
       </c>
       <c r="AC2" t="n">
-        <v>313.3240757485757</v>
+        <v>361.3904204186378</v>
       </c>
       <c r="AD2" t="n">
-        <v>253158.2732612684</v>
+        <v>291994.7169324708</v>
       </c>
       <c r="AE2" t="n">
-        <v>346382.3180306841</v>
+        <v>399520.0536047599</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.647872146418991e-06</v>
+        <v>5.643708478003034e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.616666666666665</v>
       </c>
       <c r="AH2" t="n">
-        <v>313324.0757485757</v>
+        <v>361390.4204186378</v>
       </c>
     </row>
     <row r="3">
@@ -4362,28 +4362,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>203.7288959435483</v>
+        <v>234.8833917350788</v>
       </c>
       <c r="AB3" t="n">
-        <v>278.7508633143901</v>
+        <v>321.3778188956921</v>
       </c>
       <c r="AC3" t="n">
-        <v>252.1472721490403</v>
+        <v>290.7059709169844</v>
       </c>
       <c r="AD3" t="n">
-        <v>203728.8959435482</v>
+        <v>234883.3917350789</v>
       </c>
       <c r="AE3" t="n">
-        <v>278750.8633143901</v>
+        <v>321377.8188956921</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.119222628268624e-06</v>
+        <v>6.372945853588415e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.516666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>252147.2721490403</v>
+        <v>290705.9709169844</v>
       </c>
     </row>
   </sheetData>
@@ -4659,28 +4659,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>378.3939076172551</v>
+        <v>426.3521084871304</v>
       </c>
       <c r="AB2" t="n">
-        <v>517.735237962961</v>
+        <v>583.3537641596234</v>
       </c>
       <c r="AC2" t="n">
-        <v>468.3233134977456</v>
+        <v>527.6792996503784</v>
       </c>
       <c r="AD2" t="n">
-        <v>378393.9076172551</v>
+        <v>426352.1084871304</v>
       </c>
       <c r="AE2" t="n">
-        <v>517735.2379629611</v>
+        <v>583353.7641596234</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.991030019334278e-06</v>
+        <v>4.520325627641163e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.22083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>468323.3134977455</v>
+        <v>527679.2996503784</v>
       </c>
     </row>
     <row r="3">
@@ -4765,28 +4765,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>222.738112819275</v>
+        <v>254.7387235202323</v>
       </c>
       <c r="AB3" t="n">
-        <v>304.7601124712076</v>
+        <v>348.544759799542</v>
       </c>
       <c r="AC3" t="n">
-        <v>275.6742350705499</v>
+        <v>315.2801371100205</v>
       </c>
       <c r="AD3" t="n">
-        <v>222738.112819275</v>
+        <v>254738.7235202323</v>
       </c>
       <c r="AE3" t="n">
-        <v>304760.1124712076</v>
+        <v>348544.759799542</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.037874415845866e-06</v>
+        <v>6.102415249983741e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.3125</v>
       </c>
       <c r="AH3" t="n">
-        <v>275674.2350705499</v>
+        <v>315280.1371100205</v>
       </c>
     </row>
     <row r="4">
@@ -4871,28 +4871,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>215.393744197641</v>
+        <v>247.3943548985983</v>
       </c>
       <c r="AB4" t="n">
-        <v>294.7112233124169</v>
+        <v>338.4958706407513</v>
       </c>
       <c r="AC4" t="n">
-        <v>266.5843977893665</v>
+        <v>306.1902998288371</v>
       </c>
       <c r="AD4" t="n">
-        <v>215393.744197641</v>
+        <v>247394.3548985983</v>
       </c>
       <c r="AE4" t="n">
-        <v>294711.2233124169</v>
+        <v>338495.8706407513</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.12261435930002e-06</v>
+        <v>6.230482215411902e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.141666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>266584.3977893665</v>
+        <v>306190.2998288371</v>
       </c>
     </row>
   </sheetData>
@@ -5168,28 +5168,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>204.9630443183977</v>
+        <v>235.198380375513</v>
       </c>
       <c r="AB2" t="n">
-        <v>280.439479567642</v>
+        <v>321.808800249852</v>
       </c>
       <c r="AC2" t="n">
-        <v>253.6747292370702</v>
+        <v>291.0958200155895</v>
       </c>
       <c r="AD2" t="n">
-        <v>204963.0443183978</v>
+        <v>235198.380375513</v>
       </c>
       <c r="AE2" t="n">
-        <v>280439.479567642</v>
+        <v>321808.8002498519</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.015463774693861e-06</v>
+        <v>6.346392271559136e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.075000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>253674.7292370702</v>
+        <v>291095.8200155895</v>
       </c>
     </row>
     <row r="3">
@@ -5274,28 +5274,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>205.8199369191603</v>
+        <v>236.0552729762755</v>
       </c>
       <c r="AB3" t="n">
-        <v>281.6119178274381</v>
+        <v>322.9812385096481</v>
       </c>
       <c r="AC3" t="n">
-        <v>254.7352716348792</v>
+        <v>292.1563624133985</v>
       </c>
       <c r="AD3" t="n">
-        <v>205819.9369191602</v>
+        <v>236055.2729762755</v>
       </c>
       <c r="AE3" t="n">
-        <v>281611.9178274381</v>
+        <v>322981.2385096481</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.025083118202209e-06</v>
+        <v>6.36159552844906e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.052083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>254735.2716348792</v>
+        <v>292156.3624133985</v>
       </c>
     </row>
   </sheetData>
@@ -5571,28 +5571,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>837.966862933073</v>
+        <v>905.6750728065749</v>
       </c>
       <c r="AB2" t="n">
-        <v>1146.543230353919</v>
+        <v>1239.184590178247</v>
       </c>
       <c r="AC2" t="n">
-        <v>1037.11875363247</v>
+        <v>1120.918552098129</v>
       </c>
       <c r="AD2" t="n">
-        <v>837966.862933073</v>
+        <v>905675.0728065749</v>
       </c>
       <c r="AE2" t="n">
-        <v>1146543.230353919</v>
+        <v>1239184.590178247</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.920646142654078e-06</v>
+        <v>2.800083677220344e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.22291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1037118.75363247</v>
+        <v>1120918.552098129</v>
       </c>
     </row>
     <row r="3">
@@ -5677,28 +5677,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>357.8036495465084</v>
+        <v>400.17456280871</v>
       </c>
       <c r="AB3" t="n">
-        <v>489.5627384924895</v>
+        <v>547.5364912906002</v>
       </c>
       <c r="AC3" t="n">
-        <v>442.8395578363845</v>
+        <v>495.2803770341166</v>
       </c>
       <c r="AD3" t="n">
-        <v>357803.6495465084</v>
+        <v>400174.56280871</v>
       </c>
       <c r="AE3" t="n">
-        <v>489562.7384924895</v>
+        <v>547536.4912906003</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.192651705905357e-06</v>
+        <v>4.654523147299695e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.760416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>442839.5578363845</v>
+        <v>495280.3770341166</v>
       </c>
     </row>
     <row r="4">
@@ -5783,28 +5783,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>285.4416839069165</v>
+        <v>319.4237553712495</v>
       </c>
       <c r="AB4" t="n">
-        <v>390.5539047197832</v>
+        <v>437.0496740804694</v>
       </c>
       <c r="AC4" t="n">
-        <v>353.2799881991742</v>
+        <v>395.3382665892987</v>
       </c>
       <c r="AD4" t="n">
-        <v>285441.6839069165</v>
+        <v>319423.7553712495</v>
       </c>
       <c r="AE4" t="n">
-        <v>390553.9047197832</v>
+        <v>437049.6740804694</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.649706262201173e-06</v>
+        <v>5.320856718206513e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.5375</v>
       </c>
       <c r="AH4" t="n">
-        <v>353279.9881991742</v>
+        <v>395338.2665892987</v>
       </c>
     </row>
     <row r="5">
@@ -5889,28 +5889,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>246.0495395489157</v>
+        <v>288.2497711019772</v>
       </c>
       <c r="AB5" t="n">
-        <v>336.6558349502506</v>
+        <v>394.3960535041288</v>
       </c>
       <c r="AC5" t="n">
-        <v>304.5258745621308</v>
+        <v>356.7554476960316</v>
       </c>
       <c r="AD5" t="n">
-        <v>246049.5395489157</v>
+        <v>288249.7711019772</v>
       </c>
       <c r="AE5" t="n">
-        <v>336655.8349502506</v>
+        <v>394396.0535041288</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.894685111419937e-06</v>
+        <v>5.678008023555129e-06</v>
       </c>
       <c r="AG5" t="n">
         <v>8</v>
       </c>
       <c r="AH5" t="n">
-        <v>304525.8745621308</v>
+        <v>356755.4476960317</v>
       </c>
     </row>
     <row r="6">
@@ -5995,28 +5995,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>234.434523966669</v>
+        <v>268.3312545764332</v>
       </c>
       <c r="AB6" t="n">
-        <v>320.7636582123058</v>
+        <v>367.1426604509491</v>
       </c>
       <c r="AC6" t="n">
-        <v>290.1504248672403</v>
+        <v>332.10308022547</v>
       </c>
       <c r="AD6" t="n">
-        <v>234434.523966669</v>
+        <v>268331.2545764332</v>
       </c>
       <c r="AE6" t="n">
-        <v>320763.6582123057</v>
+        <v>367142.6604509491</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.987561708101777e-06</v>
+        <v>5.813411540418066e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.814583333333332</v>
       </c>
       <c r="AH6" t="n">
-        <v>290150.4248672403</v>
+        <v>332103.08022547</v>
       </c>
     </row>
     <row r="7">
@@ -6101,28 +6101,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>235.2174400001477</v>
+        <v>269.1141706099119</v>
       </c>
       <c r="AB7" t="n">
-        <v>321.8348784691285</v>
+        <v>368.2138807077723</v>
       </c>
       <c r="AC7" t="n">
-        <v>291.1194093662192</v>
+        <v>333.0720647244491</v>
       </c>
       <c r="AD7" t="n">
-        <v>235217.4400001477</v>
+        <v>269114.1706099119</v>
       </c>
       <c r="AE7" t="n">
-        <v>321834.8784691285</v>
+        <v>368213.8807077723</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.986963469153745e-06</v>
+        <v>5.81253937605824e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.814583333333332</v>
       </c>
       <c r="AH7" t="n">
-        <v>291119.4093662192</v>
+        <v>333072.0647244491</v>
       </c>
     </row>
   </sheetData>
@@ -6398,28 +6398,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>202.2302407381285</v>
+        <v>239.407050643347</v>
       </c>
       <c r="AB2" t="n">
-        <v>276.7003371463344</v>
+        <v>327.5672885837276</v>
       </c>
       <c r="AC2" t="n">
-        <v>250.2924453205318</v>
+        <v>296.3047263049711</v>
       </c>
       <c r="AD2" t="n">
-        <v>202230.2407381285</v>
+        <v>239407.0506433471</v>
       </c>
       <c r="AE2" t="n">
-        <v>276700.3371463345</v>
+        <v>327567.2885837277</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.914257217901279e-06</v>
+        <v>6.271559513009318e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.527083333333332</v>
       </c>
       <c r="AH2" t="n">
-        <v>250292.4453205318</v>
+        <v>296304.7263049711</v>
       </c>
     </row>
   </sheetData>
@@ -6695,28 +6695,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>534.4191977670141</v>
+        <v>583.8185642074027</v>
       </c>
       <c r="AB2" t="n">
-        <v>731.2159232958602</v>
+        <v>798.8063158058364</v>
       </c>
       <c r="AC2" t="n">
-        <v>661.4297018444964</v>
+        <v>722.5693621570324</v>
       </c>
       <c r="AD2" t="n">
-        <v>534419.1977670141</v>
+        <v>583818.5642074026</v>
       </c>
       <c r="AE2" t="n">
-        <v>731215.9232958602</v>
+        <v>798806.3158058365</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.480525998512149e-06</v>
+        <v>3.683192154193557e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.05833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>661429.7018444964</v>
+        <v>722569.3621570324</v>
       </c>
     </row>
     <row r="3">
@@ -6801,28 +6801,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>275.0022928186003</v>
+        <v>316.0830160738931</v>
       </c>
       <c r="AB3" t="n">
-        <v>376.2702692793181</v>
+        <v>432.4787271908104</v>
       </c>
       <c r="AC3" t="n">
-        <v>340.359562877939</v>
+        <v>391.2035644554246</v>
       </c>
       <c r="AD3" t="n">
-        <v>275002.2928186003</v>
+        <v>316083.0160738931</v>
       </c>
       <c r="AE3" t="n">
-        <v>376270.2692793182</v>
+        <v>432478.7271908104</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.637990772092319e-06</v>
+        <v>5.401845849161077e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.904166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>340359.562877939</v>
+        <v>391203.5644554246</v>
       </c>
     </row>
     <row r="4">
@@ -6907,28 +6907,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>230.7791480206184</v>
+        <v>263.6267479624922</v>
       </c>
       <c r="AB4" t="n">
-        <v>315.7622115791164</v>
+        <v>360.7057469535712</v>
       </c>
       <c r="AC4" t="n">
-        <v>285.6263092811465</v>
+        <v>326.280496718017</v>
       </c>
       <c r="AD4" t="n">
-        <v>230779.1480206184</v>
+        <v>263626.7479624922</v>
       </c>
       <c r="AE4" t="n">
-        <v>315762.2115791164</v>
+        <v>360705.7469535712</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.039464985604409e-06</v>
+        <v>5.997972103917409e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.018750000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>285626.3092811465</v>
+        <v>326280.496718017</v>
       </c>
     </row>
     <row r="5">
@@ -7013,28 +7013,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>219.1360463400101</v>
+        <v>260.1314287407341</v>
       </c>
       <c r="AB5" t="n">
-        <v>299.8316062023222</v>
+        <v>355.9232969917607</v>
       </c>
       <c r="AC5" t="n">
-        <v>271.2160985227633</v>
+        <v>321.9544770683511</v>
       </c>
       <c r="AD5" t="n">
-        <v>219136.0463400101</v>
+        <v>260131.4287407341</v>
       </c>
       <c r="AE5" t="n">
-        <v>299831.6062023222</v>
+        <v>355923.2969917607</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.073050744751818e-06</v>
+        <v>6.047841689907868e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.952083333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>271216.0985227634</v>
+        <v>321954.4770683511</v>
       </c>
     </row>
   </sheetData>
@@ -7310,28 +7310,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>664.8222410360135</v>
+        <v>723.417124742112</v>
       </c>
       <c r="AB2" t="n">
-        <v>909.6391200727493</v>
+        <v>989.8112249832604</v>
       </c>
       <c r="AC2" t="n">
-        <v>822.8244391395287</v>
+        <v>895.3450308796369</v>
       </c>
       <c r="AD2" t="n">
-        <v>664822.2410360135</v>
+        <v>723417.124742112</v>
       </c>
       <c r="AE2" t="n">
-        <v>909639.1200727493</v>
+        <v>989811.2249832605</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.186358419297916e-06</v>
+        <v>3.214914294365528e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.51666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>822824.4391395288</v>
+        <v>895345.0308796369</v>
       </c>
     </row>
     <row r="3">
@@ -7416,28 +7416,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>320.5842947651627</v>
+        <v>362.206233172804</v>
       </c>
       <c r="AB3" t="n">
-        <v>438.6375752786062</v>
+        <v>495.5865476382688</v>
       </c>
       <c r="AC3" t="n">
-        <v>396.7746207257186</v>
+        <v>448.2884630917599</v>
       </c>
       <c r="AD3" t="n">
-        <v>320584.2947651627</v>
+        <v>362206.2331728041</v>
       </c>
       <c r="AE3" t="n">
-        <v>438637.5752786061</v>
+        <v>495586.5476382688</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.397684166063836e-06</v>
+        <v>4.996099128488608e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.341666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>396774.6207257186</v>
+        <v>448288.4630917599</v>
       </c>
     </row>
     <row r="4">
@@ -7522,28 +7522,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>257.1973942040909</v>
+        <v>290.5461673446603</v>
       </c>
       <c r="AB4" t="n">
-        <v>351.9088214980907</v>
+        <v>397.53808415322</v>
       </c>
       <c r="AC4" t="n">
-        <v>318.3231374815511</v>
+        <v>359.5976073498413</v>
       </c>
       <c r="AD4" t="n">
-        <v>257197.3942040909</v>
+        <v>290546.1673446603</v>
       </c>
       <c r="AE4" t="n">
-        <v>351908.8214980908</v>
+        <v>397538.0841532201</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.842999869471808e-06</v>
+        <v>5.650910255408714e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.258333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>318323.1374815511</v>
+        <v>359597.6073498413</v>
       </c>
     </row>
     <row r="5">
@@ -7628,28 +7628,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>226.4915454618783</v>
+        <v>259.9255699484679</v>
       </c>
       <c r="AB5" t="n">
-        <v>309.8957246025764</v>
+        <v>355.6416319103332</v>
       </c>
       <c r="AC5" t="n">
-        <v>280.3197115879793</v>
+        <v>321.6996937069756</v>
       </c>
       <c r="AD5" t="n">
-        <v>226491.5454618783</v>
+        <v>259925.5699484679</v>
       </c>
       <c r="AE5" t="n">
-        <v>309895.7246025763</v>
+        <v>355641.6319103332</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.032521845195215e-06</v>
+        <v>5.92959141924334e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.870833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>280319.7115879793</v>
+        <v>321699.6937069756</v>
       </c>
     </row>
     <row r="6">
@@ -7734,28 +7734,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>227.1949964010891</v>
+        <v>260.6290208876787</v>
       </c>
       <c r="AB6" t="n">
-        <v>310.8582172116692</v>
+        <v>356.6041245194266</v>
       </c>
       <c r="AC6" t="n">
-        <v>281.1903452533276</v>
+        <v>322.570327372324</v>
       </c>
       <c r="AD6" t="n">
-        <v>227194.9964010891</v>
+        <v>260629.0208876787</v>
       </c>
       <c r="AE6" t="n">
-        <v>310858.2172116693</v>
+        <v>356604.1245194266</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.033131240615548e-06</v>
+        <v>5.930487500155991e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.868750000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>281190.3452533276</v>
+        <v>322570.327372324</v>
       </c>
     </row>
   </sheetData>
@@ -8031,28 +8031,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1064.322696519633</v>
+        <v>1141.475402048575</v>
       </c>
       <c r="AB2" t="n">
-        <v>1456.253267981643</v>
+        <v>1561.817003423486</v>
       </c>
       <c r="AC2" t="n">
-        <v>1317.270499949773</v>
+        <v>1412.759380640679</v>
       </c>
       <c r="AD2" t="n">
-        <v>1064322.696519633</v>
+        <v>1141475.402048575</v>
       </c>
       <c r="AE2" t="n">
-        <v>1456253.267981643</v>
+        <v>1561817.003423486</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.674906708182722e-06</v>
+        <v>2.423208976628283e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.29166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1317270.499949773</v>
+        <v>1412759.380640679</v>
       </c>
     </row>
     <row r="3">
@@ -8137,28 +8137,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>407.8050012589052</v>
+        <v>450.6297259545304</v>
       </c>
       <c r="AB3" t="n">
-        <v>557.9767938093433</v>
+        <v>616.5714714314119</v>
       </c>
       <c r="AC3" t="n">
-        <v>504.7242717335275</v>
+        <v>557.7267555614923</v>
       </c>
       <c r="AD3" t="n">
-        <v>407805.0012589052</v>
+        <v>450629.7259545305</v>
       </c>
       <c r="AE3" t="n">
-        <v>557976.7938093434</v>
+        <v>616571.4714314118</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.995715492458158e-06</v>
+        <v>4.334118812280191e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.22708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>504724.2717335275</v>
+        <v>557726.7555614923</v>
       </c>
     </row>
     <row r="4">
@@ -8243,28 +8243,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>314.3932619432769</v>
+        <v>357.217897130351</v>
       </c>
       <c r="AB4" t="n">
-        <v>430.1667310426102</v>
+        <v>488.7612861951302</v>
       </c>
       <c r="AC4" t="n">
-        <v>389.1122219747015</v>
+        <v>442.1145950214398</v>
       </c>
       <c r="AD4" t="n">
-        <v>314393.2619432769</v>
+        <v>357217.897130351</v>
       </c>
       <c r="AE4" t="n">
-        <v>430166.7310426102</v>
+        <v>488761.2861951302</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.469659682139714e-06</v>
+        <v>5.019808235605297e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.829166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>389112.2219747015</v>
+        <v>442114.5950214398</v>
       </c>
     </row>
     <row r="5">
@@ -8349,28 +8349,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>279.042659355827</v>
+        <v>313.2853888431232</v>
       </c>
       <c r="AB5" t="n">
-        <v>381.7984770239434</v>
+        <v>428.6508901910682</v>
       </c>
       <c r="AC5" t="n">
-        <v>345.3601662343055</v>
+        <v>387.7410508465348</v>
       </c>
       <c r="AD5" t="n">
-        <v>279042.659355827</v>
+        <v>313285.3888431232</v>
       </c>
       <c r="AE5" t="n">
-        <v>381798.4770239434</v>
+        <v>428650.8901910682</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.735821327601586e-06</v>
+        <v>5.40488358658837e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.200000000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>345360.1662343055</v>
+        <v>387741.0508465348</v>
       </c>
     </row>
     <row r="6">
@@ -8455,28 +8455,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>248.0420531005063</v>
+        <v>282.3700339338262</v>
       </c>
       <c r="AB6" t="n">
-        <v>339.3820798950295</v>
+        <v>386.351137714968</v>
       </c>
       <c r="AC6" t="n">
-        <v>306.9919305156897</v>
+        <v>349.4783273786782</v>
       </c>
       <c r="AD6" t="n">
-        <v>248042.0531005063</v>
+        <v>282370.0339338261</v>
       </c>
       <c r="AE6" t="n">
-        <v>339382.0798950295</v>
+        <v>386351.137714968</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.901253289559932e-06</v>
+        <v>5.644226000873428e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.852083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>306991.9305156897</v>
+        <v>349478.3273786781</v>
       </c>
     </row>
     <row r="7">
@@ -8561,28 +8561,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>242.4306188300658</v>
+        <v>276.7585996633856</v>
       </c>
       <c r="AB7" t="n">
-        <v>331.7042679672084</v>
+        <v>378.673325787143</v>
       </c>
       <c r="AC7" t="n">
-        <v>300.0468781823807</v>
+        <v>342.5332750453679</v>
       </c>
       <c r="AD7" t="n">
-        <v>242430.6188300658</v>
+        <v>276758.5996633855</v>
       </c>
       <c r="AE7" t="n">
-        <v>331704.2679672083</v>
+        <v>378673.325787143</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.943015669289862e-06</v>
+        <v>5.704646663679612e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.76875</v>
       </c>
       <c r="AH7" t="n">
-        <v>300046.8781823807</v>
+        <v>342533.2750453679</v>
       </c>
     </row>
   </sheetData>
@@ -8858,28 +8858,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>421.7230853303858</v>
+        <v>470.2979407295794</v>
       </c>
       <c r="AB2" t="n">
-        <v>577.0201304584768</v>
+        <v>643.4823905870304</v>
       </c>
       <c r="AC2" t="n">
-        <v>521.9501390603585</v>
+        <v>582.0693343626108</v>
       </c>
       <c r="AD2" t="n">
-        <v>421723.0853303858</v>
+        <v>470297.9407295794</v>
       </c>
       <c r="AE2" t="n">
-        <v>577020.1304584768</v>
+        <v>643482.3905870304</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.804054962303316e-06</v>
+        <v>4.210806193798853e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.82083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>521950.1390603585</v>
+        <v>582069.3343626108</v>
       </c>
     </row>
     <row r="3">
@@ -8964,28 +8964,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>240.0164932640655</v>
+        <v>272.4850710514359</v>
       </c>
       <c r="AB3" t="n">
-        <v>328.401154864105</v>
+        <v>372.8260954054971</v>
       </c>
       <c r="AC3" t="n">
-        <v>297.0590095578881</v>
+        <v>337.244096124707</v>
       </c>
       <c r="AD3" t="n">
-        <v>240016.4932640655</v>
+        <v>272485.0710514358</v>
       </c>
       <c r="AE3" t="n">
-        <v>328401.154864105</v>
+        <v>372826.0954054971</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.898091384393405e-06</v>
+        <v>5.853703856045234e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.502083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>297059.0095578881</v>
+        <v>337244.096124707</v>
       </c>
     </row>
     <row r="4">
@@ -9070,28 +9070,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>218.9446317547604</v>
+        <v>251.2426173415351</v>
       </c>
       <c r="AB4" t="n">
-        <v>299.5697043221683</v>
+        <v>343.7612330885318</v>
       </c>
       <c r="AC4" t="n">
-        <v>270.9791921904696</v>
+        <v>310.9531434745857</v>
       </c>
       <c r="AD4" t="n">
-        <v>218944.6317547604</v>
+        <v>251242.6173415351</v>
       </c>
       <c r="AE4" t="n">
-        <v>299569.7043221683</v>
+        <v>343761.2330885318</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.114448739932523e-06</v>
+        <v>6.178604367991589e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.054166666666665</v>
       </c>
       <c r="AH4" t="n">
-        <v>270979.1921904696</v>
+        <v>310953.1434745857</v>
       </c>
     </row>
   </sheetData>
@@ -9367,28 +9367,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>294.8201415210034</v>
+        <v>334.025850135385</v>
       </c>
       <c r="AB2" t="n">
-        <v>403.3859241757258</v>
+        <v>457.0289043357154</v>
       </c>
       <c r="AC2" t="n">
-        <v>364.8873377280942</v>
+        <v>413.4107071500098</v>
       </c>
       <c r="AD2" t="n">
-        <v>294820.1415210034</v>
+        <v>334025.850135385</v>
       </c>
       <c r="AE2" t="n">
-        <v>403385.9241757258</v>
+        <v>457028.9043357154</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.409589827826009e-06</v>
+        <v>5.229447313448348e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.125</v>
       </c>
       <c r="AH2" t="n">
-        <v>364887.3377280942</v>
+        <v>413410.7071500098</v>
       </c>
     </row>
     <row r="3">
@@ -9473,28 +9473,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>207.1814654849794</v>
+        <v>238.5289821072802</v>
       </c>
       <c r="AB3" t="n">
-        <v>283.4748212775921</v>
+        <v>326.3658764750317</v>
       </c>
       <c r="AC3" t="n">
-        <v>256.4203821943525</v>
+        <v>295.2179752817362</v>
       </c>
       <c r="AD3" t="n">
-        <v>207181.4654849794</v>
+        <v>238528.9821072802</v>
       </c>
       <c r="AE3" t="n">
-        <v>283474.8212775921</v>
+        <v>326365.8764750317</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.132605158023086e-06</v>
+        <v>6.338369725529764e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.354166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>256420.3821943525</v>
+        <v>295217.9752817362</v>
       </c>
     </row>
   </sheetData>
@@ -16623,28 +16623,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>221.0687021867443</v>
+        <v>251.7418320556607</v>
       </c>
       <c r="AB2" t="n">
-        <v>302.4759511945811</v>
+        <v>344.4442806841969</v>
       </c>
       <c r="AC2" t="n">
-        <v>273.6080709403234</v>
+        <v>311.571001966384</v>
       </c>
       <c r="AD2" t="n">
-        <v>221068.7021867443</v>
+        <v>251741.8320556607</v>
       </c>
       <c r="AE2" t="n">
-        <v>302475.9511945811</v>
+        <v>344444.2806841969</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.916026394928417e-06</v>
+        <v>6.118713997023506e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.120833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>273608.0709403235</v>
+        <v>311571.001966384</v>
       </c>
     </row>
     <row r="3">
@@ -16729,28 +16729,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>200.7420844269949</v>
+        <v>238.9980440228798</v>
       </c>
       <c r="AB3" t="n">
-        <v>274.6641760286194</v>
+        <v>327.007667681506</v>
       </c>
       <c r="AC3" t="n">
-        <v>248.4506125621207</v>
+        <v>295.7985148362244</v>
       </c>
       <c r="AD3" t="n">
-        <v>200742.0844269949</v>
+        <v>238998.0440228798</v>
       </c>
       <c r="AE3" t="n">
-        <v>274664.1760286194</v>
+        <v>327007.667681506</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.085394022234899e-06</v>
+        <v>6.383347573851522e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.741666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>248450.6125621207</v>
+        <v>295798.5148362244</v>
       </c>
     </row>
   </sheetData>
@@ -17026,28 +17026,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>209.2852798150745</v>
+        <v>245.6588092648769</v>
       </c>
       <c r="AB2" t="n">
-        <v>286.3533528577644</v>
+        <v>336.1212205378253</v>
       </c>
       <c r="AC2" t="n">
-        <v>259.0241907605586</v>
+        <v>304.0422829988912</v>
       </c>
       <c r="AD2" t="n">
-        <v>209285.2798150745</v>
+        <v>245658.8092648769</v>
       </c>
       <c r="AE2" t="n">
-        <v>286353.3528577644</v>
+        <v>336121.2205378253</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.70208335869092e-06</v>
+        <v>6.033196892389082e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.35416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>259024.1907605585</v>
+        <v>304042.2829988912</v>
       </c>
     </row>
   </sheetData>
@@ -17323,28 +17323,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>591.7492059918238</v>
+        <v>649.829575466372</v>
       </c>
       <c r="AB2" t="n">
-        <v>809.657369770504</v>
+        <v>889.1254936106425</v>
       </c>
       <c r="AC2" t="n">
-        <v>732.384806760862</v>
+        <v>804.26860439591</v>
       </c>
       <c r="AD2" t="n">
-        <v>591749.2059918238</v>
+        <v>649829.5754663721</v>
       </c>
       <c r="AE2" t="n">
-        <v>809657.3697705041</v>
+        <v>889125.4936106425</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.329587786087029e-06</v>
+        <v>3.441688278188116e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.76041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>732384.806760862</v>
+        <v>804268.6043959099</v>
       </c>
     </row>
     <row r="3">
@@ -17429,28 +17429,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>301.6712509879944</v>
+        <v>334.8601230534302</v>
       </c>
       <c r="AB3" t="n">
-        <v>412.7599143980808</v>
+        <v>458.1703933477083</v>
       </c>
       <c r="AC3" t="n">
-        <v>373.3666874801054</v>
+        <v>414.443254052788</v>
       </c>
       <c r="AD3" t="n">
-        <v>301671.2509879944</v>
+        <v>334860.1230534302</v>
       </c>
       <c r="AE3" t="n">
-        <v>412759.9143980808</v>
+        <v>458170.3933477083</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.515154093339377e-06</v>
+        <v>5.193221183303007e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.11875</v>
       </c>
       <c r="AH3" t="n">
-        <v>373366.6874801054</v>
+        <v>414443.254052788</v>
       </c>
     </row>
     <row r="4">
@@ -17535,28 +17535,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>242.9513275392927</v>
+        <v>276.05485875016</v>
       </c>
       <c r="AB4" t="n">
-        <v>332.4167245952193</v>
+        <v>377.7104364228098</v>
       </c>
       <c r="AC4" t="n">
-        <v>300.6913389497536</v>
+        <v>341.6622824905431</v>
       </c>
       <c r="AD4" t="n">
-        <v>242951.3275392927</v>
+        <v>276054.85875016</v>
       </c>
       <c r="AE4" t="n">
-        <v>332416.7245952193</v>
+        <v>377710.4364228098</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.947528048352888e-06</v>
+        <v>5.832002164921805e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.120833333333332</v>
       </c>
       <c r="AH4" t="n">
-        <v>300691.3389497536</v>
+        <v>341662.2824905431</v>
       </c>
     </row>
     <row r="5">
@@ -17641,28 +17641,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>222.5063509891268</v>
+        <v>255.6951335460112</v>
       </c>
       <c r="AB5" t="n">
-        <v>304.4430057105886</v>
+        <v>349.8533621906444</v>
       </c>
       <c r="AC5" t="n">
-        <v>275.3873925341023</v>
+        <v>316.4638483255515</v>
       </c>
       <c r="AD5" t="n">
-        <v>222506.3509891268</v>
+        <v>255695.1335460112</v>
       </c>
       <c r="AE5" t="n">
-        <v>304443.0057105887</v>
+        <v>349853.3621906444</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.054313644359783e-06</v>
+        <v>5.989765154688156e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.90625</v>
       </c>
       <c r="AH5" t="n">
-        <v>275387.3925341023</v>
+        <v>316463.8483255515</v>
       </c>
     </row>
   </sheetData>
@@ -17938,28 +17938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>943.8428487754182</v>
+        <v>1020.433102141186</v>
       </c>
       <c r="AB2" t="n">
-        <v>1291.407425102254</v>
+        <v>1396.201588680803</v>
       </c>
       <c r="AC2" t="n">
-        <v>1168.157312952199</v>
+        <v>1262.950068638344</v>
       </c>
       <c r="AD2" t="n">
-        <v>943842.8487754182</v>
+        <v>1020433.102141186</v>
       </c>
       <c r="AE2" t="n">
-        <v>1291407.425102254</v>
+        <v>1396201.588680803</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.794557473701244e-06</v>
+        <v>2.606000760074068e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.2125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1168157.312952199</v>
+        <v>1262950.068638344</v>
       </c>
     </row>
     <row r="3">
@@ -18044,28 +18044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>378.404766089863</v>
+        <v>429.4079814249596</v>
       </c>
       <c r="AB3" t="n">
-        <v>517.7500950042253</v>
+        <v>587.5349443287607</v>
       </c>
       <c r="AC3" t="n">
-        <v>468.3367526038435</v>
+        <v>531.4614338524966</v>
       </c>
       <c r="AD3" t="n">
-        <v>378404.766089863</v>
+        <v>429407.9814249597</v>
       </c>
       <c r="AE3" t="n">
-        <v>517750.0950042253</v>
+        <v>587534.9443287607</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.090173701512652e-06</v>
+        <v>4.487454502247679e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.995833333333332</v>
       </c>
       <c r="AH3" t="n">
-        <v>468336.7526038435</v>
+        <v>531461.4338524966</v>
       </c>
     </row>
     <row r="4">
@@ -18150,28 +18150,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>299.4566319349955</v>
+        <v>342.0162052839571</v>
       </c>
       <c r="AB4" t="n">
-        <v>409.7297749076707</v>
+        <v>467.9616607595821</v>
       </c>
       <c r="AC4" t="n">
-        <v>370.6257402498326</v>
+        <v>423.3000566450025</v>
       </c>
       <c r="AD4" t="n">
-        <v>299456.6319349955</v>
+        <v>342016.2052839571</v>
       </c>
       <c r="AE4" t="n">
-        <v>409729.7749076707</v>
+        <v>467961.6607595821</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.561980846957365e-06</v>
+        <v>5.172598220214768e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.672916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>370625.7402498326</v>
+        <v>423300.0566450026</v>
       </c>
     </row>
     <row r="5">
@@ -18256,28 +18256,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>266.5211314261795</v>
+        <v>300.5518114429855</v>
       </c>
       <c r="AB5" t="n">
-        <v>364.6659700997747</v>
+        <v>411.2282478264125</v>
       </c>
       <c r="AC5" t="n">
-        <v>329.8627617253548</v>
+        <v>371.9812010163297</v>
       </c>
       <c r="AD5" t="n">
-        <v>266521.1314261795</v>
+        <v>300551.8114429855</v>
       </c>
       <c r="AE5" t="n">
-        <v>364665.9700997747</v>
+        <v>411228.2478264125</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.816418641295243e-06</v>
+        <v>5.542084901557172e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.09375</v>
       </c>
       <c r="AH5" t="n">
-        <v>329862.7617253548</v>
+        <v>371981.2010163297</v>
       </c>
     </row>
     <row r="6">
@@ -18362,28 +18362,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>239.796695737613</v>
+        <v>273.9126271004426</v>
       </c>
       <c r="AB6" t="n">
-        <v>328.1004181916305</v>
+        <v>374.7793405710763</v>
       </c>
       <c r="AC6" t="n">
-        <v>296.786974771348</v>
+        <v>339.0109263130801</v>
       </c>
       <c r="AD6" t="n">
-        <v>239796.695737613</v>
+        <v>273912.6271004426</v>
       </c>
       <c r="AE6" t="n">
-        <v>328100.4181916305</v>
+        <v>374779.3405710763</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.953571881250101e-06</v>
+        <v>5.74125458701272e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.8125</v>
       </c>
       <c r="AH6" t="n">
-        <v>296786.9747713479</v>
+        <v>339010.9263130801</v>
       </c>
     </row>
     <row r="7">
@@ -18468,28 +18468,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>239.0601917492545</v>
+        <v>273.176123112084</v>
       </c>
       <c r="AB7" t="n">
-        <v>327.092700942496</v>
+        <v>373.7716233219413</v>
       </c>
       <c r="AC7" t="n">
-        <v>295.8754326421305</v>
+        <v>338.0993841838625</v>
       </c>
       <c r="AD7" t="n">
-        <v>239060.1917492545</v>
+        <v>273176.123112084</v>
       </c>
       <c r="AE7" t="n">
-        <v>327092.700942496</v>
+        <v>373771.6233219412</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.961875212533855e-06</v>
+        <v>5.753312427429489e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.795833333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>295875.4326421305</v>
+        <v>338099.3841838625</v>
       </c>
     </row>
   </sheetData>
@@ -18765,28 +18765,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>227.9861016843496</v>
+        <v>270.5948341598985</v>
       </c>
       <c r="AB2" t="n">
-        <v>311.9406423613275</v>
+        <v>370.2397898991296</v>
       </c>
       <c r="AC2" t="n">
-        <v>282.1694652658961</v>
+        <v>334.9046239859646</v>
       </c>
       <c r="AD2" t="n">
-        <v>227986.1016843496</v>
+        <v>270594.8341598985</v>
       </c>
       <c r="AE2" t="n">
-        <v>311940.6423613275</v>
+        <v>370239.7898991295</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.270710265014135e-06</v>
+        <v>5.452079145994971e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.13541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>282169.4652658961</v>
+        <v>334904.6239859646</v>
       </c>
     </row>
   </sheetData>
@@ -19062,28 +19062,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>331.1107053566324</v>
+        <v>378.680610356956</v>
       </c>
       <c r="AB2" t="n">
-        <v>453.040274642315</v>
+        <v>518.127517299852</v>
       </c>
       <c r="AC2" t="n">
-        <v>409.8027466764706</v>
+        <v>468.6781542452911</v>
       </c>
       <c r="AD2" t="n">
-        <v>331110.7053566324</v>
+        <v>378680.610356956</v>
       </c>
       <c r="AE2" t="n">
-        <v>453040.2746423149</v>
+        <v>518127.517299852</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.190877010671124e-06</v>
+        <v>4.856216851640382e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.6625</v>
       </c>
       <c r="AH2" t="n">
-        <v>409802.7466764706</v>
+        <v>468678.1542452911</v>
       </c>
     </row>
     <row r="3">
@@ -19168,28 +19168,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>210.9631779328187</v>
+        <v>242.6480904900612</v>
       </c>
       <c r="AB3" t="n">
-        <v>288.6491270861015</v>
+        <v>332.0018222865864</v>
       </c>
       <c r="AC3" t="n">
-        <v>261.1008595186833</v>
+        <v>300.3160343351375</v>
       </c>
       <c r="AD3" t="n">
-        <v>210963.1779328187</v>
+        <v>242648.0904900611</v>
       </c>
       <c r="AE3" t="n">
-        <v>288649.1270861015</v>
+        <v>332001.8222865864</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.130993640683083e-06</v>
+        <v>6.286986576046404e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.235416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>261100.8595186833</v>
+        <v>300316.0343351375</v>
       </c>
     </row>
     <row r="4">
@@ -19274,28 +19274,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>211.6011391680734</v>
+        <v>243.2860517253159</v>
       </c>
       <c r="AB4" t="n">
-        <v>289.5220137930399</v>
+        <v>332.8747089935248</v>
       </c>
       <c r="AC4" t="n">
-        <v>261.8904391434159</v>
+        <v>301.1056139598702</v>
       </c>
       <c r="AD4" t="n">
-        <v>211601.1391680734</v>
+        <v>243286.0517253159</v>
       </c>
       <c r="AE4" t="n">
-        <v>289522.0137930399</v>
+        <v>332874.7089935248</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.134259635576297e-06</v>
+        <v>6.291957115300898e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.229166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>261890.4391434159</v>
+        <v>301105.6139598702</v>
       </c>
     </row>
   </sheetData>
@@ -19571,28 +19571,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>475.5664609065786</v>
+        <v>524.4785364787452</v>
       </c>
       <c r="AB2" t="n">
-        <v>650.6910123239068</v>
+        <v>717.614671970226</v>
       </c>
       <c r="AC2" t="n">
-        <v>588.5899753582841</v>
+        <v>649.1265348559048</v>
       </c>
       <c r="AD2" t="n">
-        <v>475566.4609065786</v>
+        <v>524478.5364787453</v>
       </c>
       <c r="AE2" t="n">
-        <v>650691.0123239068</v>
+        <v>717614.671970226</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.637409982717873e-06</v>
+        <v>3.937417567718184e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.41875</v>
       </c>
       <c r="AH2" t="n">
-        <v>588589.9753582841</v>
+        <v>649126.5348559048</v>
       </c>
     </row>
     <row r="3">
@@ -19677,28 +19677,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>258.270610780241</v>
+        <v>299.0163756908253</v>
       </c>
       <c r="AB3" t="n">
-        <v>353.3772437647195</v>
+        <v>409.1273968916622</v>
       </c>
       <c r="AC3" t="n">
-        <v>319.6514155878905</v>
+        <v>370.0808523462291</v>
       </c>
       <c r="AD3" t="n">
-        <v>258270.610780241</v>
+        <v>299016.3756908253</v>
       </c>
       <c r="AE3" t="n">
-        <v>353377.2437647195</v>
+        <v>409127.3968916622</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.756049149754396e-06</v>
+        <v>5.607445942938146e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.720833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>319651.4155878905</v>
+        <v>370080.8523462291</v>
       </c>
     </row>
     <row r="4">
@@ -19783,28 +19783,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>222.8773059423702</v>
+        <v>255.4569392084739</v>
       </c>
       <c r="AB4" t="n">
-        <v>304.9505626429935</v>
+        <v>349.5274541896336</v>
       </c>
       <c r="AC4" t="n">
-        <v>275.8465089452392</v>
+        <v>316.1690445267423</v>
       </c>
       <c r="AD4" t="n">
-        <v>222877.3059423702</v>
+        <v>255456.9392084739</v>
       </c>
       <c r="AE4" t="n">
-        <v>304950.5626429935</v>
+        <v>349527.4541896336</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.092348401798124e-06</v>
+        <v>6.10951069270561e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.004166666666668</v>
       </c>
       <c r="AH4" t="n">
-        <v>275846.5089452392</v>
+        <v>316169.0445267423</v>
       </c>
     </row>
     <row r="5">
@@ -19889,28 +19889,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>214.9652870699116</v>
+        <v>255.6257111259237</v>
       </c>
       <c r="AB5" t="n">
-        <v>294.1249893680635</v>
+        <v>349.7583753727799</v>
       </c>
       <c r="AC5" t="n">
-        <v>266.0541131898775</v>
+        <v>316.3779269162691</v>
       </c>
       <c r="AD5" t="n">
-        <v>214965.2870699116</v>
+        <v>255625.7111259237</v>
       </c>
       <c r="AE5" t="n">
-        <v>294124.9893680635</v>
+        <v>349758.3753727799</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.098951753170652e-06</v>
+        <v>6.119368906586037e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.991666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>266054.1131898775</v>
+        <v>316377.9269162691</v>
       </c>
     </row>
   </sheetData>
